--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il34-Ptprz1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il34-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +528,1115 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.26192380836562</v>
+        <v>1.3027365</v>
       </c>
       <c r="H2">
-        <v>1.26192380836562</v>
+        <v>2.605473</v>
       </c>
       <c r="I2">
-        <v>0.1012061416531514</v>
+        <v>0.07384773732165573</v>
       </c>
       <c r="J2">
-        <v>0.1012061416531514</v>
+        <v>0.06425330510909943</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>5.4690541859018</v>
+        <v>0.0191995</v>
       </c>
       <c r="N2">
-        <v>5.4690541859018</v>
+        <v>0.038399</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.002780311579676609</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.002767389187860387</v>
       </c>
       <c r="Q2">
-        <v>6.901529686431134</v>
+        <v>0.02501188943175</v>
       </c>
       <c r="R2">
-        <v>6.901529686431134</v>
+        <v>0.100047557727</v>
       </c>
       <c r="S2">
-        <v>0.1012061416531514</v>
+        <v>0.0002053197192083159</v>
       </c>
       <c r="T2">
-        <v>0.1012061416531514</v>
+        <v>0.0001778139018432163</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.42806665996765</v>
+        <v>1.3027365</v>
       </c>
       <c r="H3">
-        <v>1.42806665996765</v>
+        <v>2.605473</v>
       </c>
       <c r="I3">
-        <v>0.1145307788954514</v>
+        <v>0.07384773732165573</v>
       </c>
       <c r="J3">
-        <v>0.1145307788954514</v>
+        <v>0.06425330510909943</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>5.4690541859018</v>
+        <v>0.06449100000000001</v>
       </c>
       <c r="N3">
-        <v>5.4690541859018</v>
+        <v>0.193473</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.009339049146327988</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.01394346436998132</v>
       </c>
       <c r="Q3">
-        <v>7.810173944442877</v>
+        <v>0.0840147796215</v>
       </c>
       <c r="R3">
-        <v>7.810173944442877</v>
+        <v>0.504088677729</v>
       </c>
       <c r="S3">
-        <v>0.1145307788954514</v>
+        <v>0.0006896676481920625</v>
       </c>
       <c r="T3">
-        <v>0.1145307788954514</v>
+        <v>0.0008959136704422666</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.3027365</v>
+      </c>
+      <c r="H4">
+        <v>2.605473</v>
+      </c>
+      <c r="I4">
+        <v>0.07384773732165573</v>
+      </c>
+      <c r="J4">
+        <v>0.06425330510909943</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>6.821830500000001</v>
+      </c>
+      <c r="N4">
+        <v>13.643661</v>
+      </c>
+      <c r="O4">
+        <v>0.9878806392739954</v>
+      </c>
+      <c r="P4">
+        <v>0.9832891464421584</v>
+      </c>
+      <c r="Q4">
+        <v>8.887047589163251</v>
+      </c>
+      <c r="R4">
+        <v>35.548190356653</v>
+      </c>
+      <c r="S4">
+        <v>0.07295274995425535</v>
+      </c>
+      <c r="T4">
+        <v>0.06317957753681396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.560702</v>
+      </c>
+      <c r="H5">
+        <v>4.682106</v>
+      </c>
+      <c r="I5">
+        <v>0.08847093125385122</v>
+      </c>
+      <c r="J5">
+        <v>0.1154649406733999</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <v>0.0191995</v>
+      </c>
+      <c r="N5">
+        <v>0.038399</v>
+      </c>
+      <c r="O5">
+        <v>0.002780311579676609</v>
+      </c>
+      <c r="P5">
+        <v>0.002767389187860387</v>
+      </c>
+      <c r="Q5">
+        <v>0.029964698049</v>
+      </c>
+      <c r="R5">
+        <v>0.179788188294</v>
+      </c>
+      <c r="S5">
+        <v>0.0002459767546298558</v>
+      </c>
+      <c r="T5">
+        <v>0.0003195364283965078</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.560702</v>
+      </c>
+      <c r="H6">
+        <v>4.682106</v>
+      </c>
+      <c r="I6">
+        <v>0.08847093125385122</v>
+      </c>
+      <c r="J6">
+        <v>0.1154649406733999</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.06449100000000001</v>
+      </c>
+      <c r="N6">
+        <v>0.193473</v>
+      </c>
+      <c r="O6">
+        <v>0.009339049146327988</v>
+      </c>
+      <c r="P6">
+        <v>0.01394346436998132</v>
+      </c>
+      <c r="Q6">
+        <v>0.100651232682</v>
+      </c>
+      <c r="R6">
+        <v>0.9058610941380001</v>
+      </c>
+      <c r="S6">
+        <v>0.0008262343750011214</v>
+      </c>
+      <c r="T6">
+        <v>0.001609981286261558</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.560702</v>
+      </c>
+      <c r="H7">
+        <v>4.682106</v>
+      </c>
+      <c r="I7">
+        <v>0.08847093125385122</v>
+      </c>
+      <c r="J7">
+        <v>0.1154649406733999</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>6.821830500000001</v>
+      </c>
+      <c r="N7">
+        <v>13.643661</v>
+      </c>
+      <c r="O7">
+        <v>0.9878806392739954</v>
+      </c>
+      <c r="P7">
+        <v>0.9832891464421584</v>
+      </c>
+      <c r="Q7">
+        <v>10.646844505011</v>
+      </c>
+      <c r="R7">
+        <v>63.88106703006601</v>
+      </c>
+      <c r="S7">
+        <v>0.08739872012422024</v>
+      </c>
+      <c r="T7">
+        <v>0.1135354229587418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.1772183333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.531655</v>
+      </c>
+      <c r="I8">
+        <v>0.0100459094594967</v>
+      </c>
+      <c r="J8">
+        <v>0.01311108997398103</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+      <c r="M8">
+        <v>0.0191995</v>
+      </c>
+      <c r="N8">
+        <v>0.038399</v>
+      </c>
+      <c r="O8">
+        <v>0.002780311579676609</v>
+      </c>
+      <c r="P8">
+        <v>0.002767389187860387</v>
+      </c>
+      <c r="Q8">
+        <v>0.003402503390833334</v>
+      </c>
+      <c r="R8">
+        <v>0.020415020345</v>
+      </c>
+      <c r="S8">
+        <v>2.793075839862147E-05</v>
+      </c>
+      <c r="T8">
+        <v>3.628348863505981E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1772183333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.531655</v>
+      </c>
+      <c r="I9">
+        <v>0.0100459094594967</v>
+      </c>
+      <c r="J9">
+        <v>0.01311108997398103</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.06449100000000001</v>
+      </c>
+      <c r="N9">
+        <v>0.193473</v>
+      </c>
+      <c r="O9">
+        <v>0.009339049146327988</v>
+      </c>
+      <c r="P9">
+        <v>0.01394346436998132</v>
+      </c>
+      <c r="Q9">
+        <v>0.011428987535</v>
+      </c>
+      <c r="R9">
+        <v>0.102860887815</v>
+      </c>
+      <c r="S9">
+        <v>9.381924216180095E-05</v>
+      </c>
+      <c r="T9">
+        <v>0.0001828140159038237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1772183333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.531655</v>
+      </c>
+      <c r="I10">
+        <v>0.0100459094594967</v>
+      </c>
+      <c r="J10">
+        <v>0.01311108997398103</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>6.821830500000001</v>
+      </c>
+      <c r="N10">
+        <v>13.643661</v>
+      </c>
+      <c r="O10">
+        <v>0.9878806392739954</v>
+      </c>
+      <c r="P10">
+        <v>0.9832891464421584</v>
+      </c>
+      <c r="Q10">
+        <v>1.2089534314925</v>
+      </c>
+      <c r="R10">
+        <v>7.253720588955001</v>
+      </c>
+      <c r="S10">
+        <v>0.009924159458936281</v>
+      </c>
+      <c r="T10">
+        <v>0.01289199246944214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.2263643333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.6790929999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.01283183040238123</v>
+      </c>
+      <c r="J11">
+        <v>0.01674704352202217</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.0191995</v>
+      </c>
+      <c r="N11">
+        <v>0.038399</v>
+      </c>
+      <c r="O11">
+        <v>0.002780311579676609</v>
+      </c>
+      <c r="P11">
+        <v>0.002767389187860387</v>
+      </c>
+      <c r="Q11">
+        <v>0.004346082017833333</v>
+      </c>
+      <c r="R11">
+        <v>0.026076492107</v>
+      </c>
+      <c r="S11">
+        <v>3.56764866561869E-05</v>
+      </c>
+      <c r="T11">
+        <v>4.634558717147149E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.2263643333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.6790929999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.01283183040238123</v>
+      </c>
+      <c r="J12">
+        <v>0.01674704352202217</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.06449100000000001</v>
+      </c>
+      <c r="N12">
+        <v>0.193473</v>
+      </c>
+      <c r="O12">
+        <v>0.009339049146327988</v>
+      </c>
+      <c r="P12">
+        <v>0.01394346436998132</v>
+      </c>
+      <c r="Q12">
+        <v>0.014598462221</v>
+      </c>
+      <c r="R12">
+        <v>0.131386159989</v>
+      </c>
+      <c r="S12">
+        <v>0.000119837094765184</v>
+      </c>
+      <c r="T12">
+        <v>0.0002335118046518426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.2263643333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.6790929999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.01283183040238123</v>
+      </c>
+      <c r="J13">
+        <v>0.01674704352202217</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.821830500000001</v>
+      </c>
+      <c r="N13">
+        <v>13.643661</v>
+      </c>
+      <c r="O13">
+        <v>0.9878806392739954</v>
+      </c>
+      <c r="P13">
+        <v>0.9832891464421584</v>
+      </c>
+      <c r="Q13">
+        <v>1.5442191132455</v>
+      </c>
+      <c r="R13">
+        <v>9.265314679473001</v>
+      </c>
+      <c r="S13">
+        <v>0.01267631682095986</v>
+      </c>
+      <c r="T13">
+        <v>0.01646718613019886</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>9.77885566840042</v>
-      </c>
-      <c r="H4">
-        <v>9.77885566840042</v>
-      </c>
-      <c r="I4">
-        <v>0.7842630794513972</v>
-      </c>
-      <c r="J4">
-        <v>0.7842630794513972</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>5.4690541859018</v>
-      </c>
-      <c r="N4">
-        <v>5.4690541859018</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>53.48109152659485</v>
-      </c>
-      <c r="R4">
-        <v>53.48109152659485</v>
-      </c>
-      <c r="S4">
-        <v>0.7842630794513972</v>
-      </c>
-      <c r="T4">
-        <v>0.7842630794513972</v>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>3.304048</v>
+      </c>
+      <c r="H14">
+        <v>9.912144</v>
+      </c>
+      <c r="I14">
+        <v>0.1872953347067054</v>
+      </c>
+      <c r="J14">
+        <v>0.244442376765113</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.0191995</v>
+      </c>
+      <c r="N14">
+        <v>0.038399</v>
+      </c>
+      <c r="O14">
+        <v>0.002780311579676609</v>
+      </c>
+      <c r="P14">
+        <v>0.002767389187860387</v>
+      </c>
+      <c r="Q14">
+        <v>0.063436069576</v>
+      </c>
+      <c r="R14">
+        <v>0.380616417456</v>
+      </c>
+      <c r="S14">
+        <v>0.0005207393879044594</v>
+      </c>
+      <c r="T14">
+        <v>0.0006764671905146689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>3.304048</v>
+      </c>
+      <c r="H15">
+        <v>9.912144</v>
+      </c>
+      <c r="I15">
+        <v>0.1872953347067054</v>
+      </c>
+      <c r="J15">
+        <v>0.244442376765113</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.06449100000000001</v>
+      </c>
+      <c r="N15">
+        <v>0.193473</v>
+      </c>
+      <c r="O15">
+        <v>0.009339049146327988</v>
+      </c>
+      <c r="P15">
+        <v>0.01394346436998132</v>
+      </c>
+      <c r="Q15">
+        <v>0.213081359568</v>
+      </c>
+      <c r="R15">
+        <v>1.917732236112</v>
+      </c>
+      <c r="S15">
+        <v>0.001749160335703872</v>
+      </c>
+      <c r="T15">
+        <v>0.003408373570937903</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>3.304048</v>
+      </c>
+      <c r="H16">
+        <v>9.912144</v>
+      </c>
+      <c r="I16">
+        <v>0.1872953347067054</v>
+      </c>
+      <c r="J16">
+        <v>0.244442376765113</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.821830500000001</v>
+      </c>
+      <c r="N16">
+        <v>13.643661</v>
+      </c>
+      <c r="O16">
+        <v>0.9878806392739954</v>
+      </c>
+      <c r="P16">
+        <v>0.9832891464421584</v>
+      </c>
+      <c r="Q16">
+        <v>22.539655419864</v>
+      </c>
+      <c r="R16">
+        <v>135.237932519184</v>
+      </c>
+      <c r="S16">
+        <v>0.1850254349830971</v>
+      </c>
+      <c r="T16">
+        <v>0.2403575360036605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>11.069776</v>
+      </c>
+      <c r="H17">
+        <v>22.139552</v>
+      </c>
+      <c r="I17">
+        <v>0.6275082568559098</v>
+      </c>
+      <c r="J17">
+        <v>0.5459812439563845</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.0191995</v>
+      </c>
+      <c r="N17">
+        <v>0.038399</v>
+      </c>
+      <c r="O17">
+        <v>0.002780311579676609</v>
+      </c>
+      <c r="P17">
+        <v>0.002767389187860387</v>
+      </c>
+      <c r="Q17">
+        <v>0.212534164312</v>
+      </c>
+      <c r="R17">
+        <v>0.8501366572480001</v>
+      </c>
+      <c r="S17">
+        <v>0.00174466847287917</v>
+      </c>
+      <c r="T17">
+        <v>0.001510942591299463</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>11.069776</v>
+      </c>
+      <c r="H18">
+        <v>22.139552</v>
+      </c>
+      <c r="I18">
+        <v>0.6275082568559098</v>
+      </c>
+      <c r="J18">
+        <v>0.5459812439563845</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.06449100000000001</v>
+      </c>
+      <c r="N18">
+        <v>0.193473</v>
+      </c>
+      <c r="O18">
+        <v>0.009339049146327988</v>
+      </c>
+      <c r="P18">
+        <v>0.01394346436998132</v>
+      </c>
+      <c r="Q18">
+        <v>0.7139009240160001</v>
+      </c>
+      <c r="R18">
+        <v>4.283405544096</v>
+      </c>
+      <c r="S18">
+        <v>0.005860330450503949</v>
+      </c>
+      <c r="T18">
+        <v>0.007612870021783925</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>11.069776</v>
+      </c>
+      <c r="H19">
+        <v>22.139552</v>
+      </c>
+      <c r="I19">
+        <v>0.6275082568559098</v>
+      </c>
+      <c r="J19">
+        <v>0.5459812439563845</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>6.821830500000001</v>
+      </c>
+      <c r="N19">
+        <v>13.643661</v>
+      </c>
+      <c r="O19">
+        <v>0.9878806392739954</v>
+      </c>
+      <c r="P19">
+        <v>0.9832891464421584</v>
+      </c>
+      <c r="Q19">
+        <v>75.51613554496801</v>
+      </c>
+      <c r="R19">
+        <v>302.064542179872</v>
+      </c>
+      <c r="S19">
+        <v>0.6199032579325267</v>
+      </c>
+      <c r="T19">
+        <v>0.5368574313433011</v>
       </c>
     </row>
   </sheetData>
